--- a/funds/stocks/宋城演艺&财务报表同型分析.xlsx
+++ b/funds/stocks/宋城演艺&财务报表同型分析.xlsx
@@ -464,10 +464,10 @@
   <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
@@ -496,7 +496,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -512,7 +511,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -520,7 +519,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,22 +548,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,54 +556,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -624,9 +586,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,9 +595,48 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -679,7 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +697,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +721,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,37 +823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,7 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,79 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,6 +964,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -978,6 +987,51 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1001,61 +1055,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,10 +1067,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,133 +1079,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1225,7 +1225,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,7 +1249,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3256,7 +3256,7 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3980,13 +3980,10 @@
       <c r="H31" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="22">
-        <f>(C18*POWER(1+I28,3))*J29</f>
-        <v>454.20375</v>
-      </c>
+      <c r="I31" s="22"/>
       <c r="J31" s="22">
         <f>I31/I20</f>
-        <v>17.3691682600382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="7:10">
@@ -3996,11 +3993,11 @@
       </c>
       <c r="I32" s="22">
         <f>I31*0.7</f>
-        <v>317.942625</v>
+        <v>0</v>
       </c>
       <c r="J32" s="22">
         <f>I32/I20</f>
-        <v>12.1584177820268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="7:10">

--- a/funds/stocks/宋城演艺&财务报表同型分析.xlsx
+++ b/funds/stocks/宋城演艺&财务报表同型分析.xlsx
@@ -462,14 +462,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="\+0;\-0;0;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -511,17 +511,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -532,16 +533,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,7 +549,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,11 +579,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,53 +637,6 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -679,24 +679,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -704,12 +686,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +703,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,55 +781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,31 +793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,13 +811,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,7 +853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,27 +966,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,6 +986,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1021,17 +1027,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,8 +1054,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,10 +1067,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,133 +1079,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1225,7 +1225,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,7 +1249,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1261,7 +1261,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1285,7 +1285,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3256,7 +3256,7 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3980,10 +3980,13 @@
       <c r="H31" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="22"/>
+      <c r="I31" s="22">
+        <f>(C18*POWER(1+I28,3))*J29</f>
+        <v>454.20375</v>
+      </c>
       <c r="J31" s="22">
         <f>I31/I20</f>
-        <v>0</v>
+        <v>17.3691682600382</v>
       </c>
     </row>
     <row r="32" spans="7:10">
@@ -3993,11 +3996,11 @@
       </c>
       <c r="I32" s="22">
         <f>I31*0.7</f>
-        <v>0</v>
+        <v>317.942625</v>
       </c>
       <c r="J32" s="22">
         <f>I32/I20</f>
-        <v>0</v>
+        <v>12.1584177820268</v>
       </c>
     </row>
     <row r="33" spans="7:10">
